--- a/mysql_upload_05/data/youtube_data_language_summary.xlsx
+++ b/mysql_upload_05/data/youtube_data_language_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syb/Desktop/comments_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syb/Desktop/mysql_upload_05/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA65BB-AFCF-C944-969A-F6BE9CEEA07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC07982-3F95-444C-B02E-B0298B0ADFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14580" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21340" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>korean</t>
   </si>
   <si>
-    <t>foreign</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
@@ -338,6 +335,10 @@
   </si>
   <si>
     <t>달달투어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign_lang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,7 +737,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31:K31"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -757,33 +758,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>152</v>
@@ -807,10 +808,10 @@
         <v>0.66</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K2">
         <v>24</v>
@@ -818,7 +819,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2476</v>
@@ -842,10 +843,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -853,7 +854,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>5743</v>
@@ -877,10 +878,10 @@
         <v>0.35</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4">
         <v>14</v>
@@ -888,7 +889,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>3537</v>
@@ -912,10 +913,10 @@
         <v>0.82</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5">
         <v>22</v>
@@ -923,7 +924,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>2307</v>
@@ -947,10 +948,10 @@
         <v>0.65</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6">
         <v>12</v>
@@ -958,7 +959,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>11960</v>
@@ -982,10 +983,10 @@
         <v>1.5</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -993,7 +994,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>9766</v>
@@ -1017,10 +1018,10 @@
         <v>0.98</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8">
         <v>17</v>
@@ -1028,7 +1029,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>19232</v>
@@ -1052,10 +1053,10 @@
         <v>0.68</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3">
         <v>3</v>
@@ -1063,7 +1064,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>5834</v>
@@ -1087,10 +1088,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10">
         <v>29</v>
@@ -1098,7 +1099,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>1336</v>
@@ -1122,10 +1123,10 @@
         <v>0.52</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11">
         <v>19</v>
@@ -1133,7 +1134,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>5897</v>
@@ -1157,10 +1158,10 @@
         <v>0.68</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12">
         <v>18</v>
@@ -1168,7 +1169,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>1805</v>
@@ -1192,10 +1193,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -1203,7 +1204,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>3413</v>
@@ -1227,10 +1228,10 @@
         <v>0.97</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14">
         <v>25</v>
@@ -1238,7 +1239,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>7412</v>
@@ -1262,10 +1263,10 @@
         <v>1.55</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15">
         <v>16</v>
@@ -1273,7 +1274,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>12499</v>
@@ -1297,10 +1298,10 @@
         <v>1.03</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16">
         <v>28</v>
@@ -1308,7 +1309,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>14921</v>
@@ -1332,10 +1333,10 @@
         <v>0.82</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17">
         <v>13</v>
@@ -1343,7 +1344,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>2223</v>
@@ -1367,10 +1368,10 @@
         <v>0.85</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -1378,7 +1379,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>8103</v>
@@ -1402,10 +1403,10 @@
         <v>1.37</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19">
         <v>30</v>
@@ -1413,7 +1414,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>12048</v>
@@ -1437,10 +1438,10 @@
         <v>1.84</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -1448,7 +1449,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>32331</v>
@@ -1472,10 +1473,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -1483,7 +1484,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>4558</v>
@@ -1507,10 +1508,10 @@
         <v>3.23</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -1518,7 +1519,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>7740</v>
@@ -1542,10 +1543,10 @@
         <v>1.38</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -1553,7 +1554,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>21033</v>
@@ -1577,10 +1578,10 @@
         <v>1.49</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -1588,7 +1589,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>26237</v>
@@ -1612,10 +1613,10 @@
         <v>1.23</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K25">
         <v>26</v>
@@ -1623,7 +1624,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>700</v>
@@ -1647,10 +1648,10 @@
         <v>8.7100000000000009</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26" s="3">
         <v>23</v>
@@ -1658,7 +1659,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>9267</v>
@@ -1682,10 +1683,10 @@
         <v>1.91</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1693,7 +1694,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>9566</v>
@@ -1717,10 +1718,10 @@
         <v>0.67</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -1728,7 +1729,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>6417</v>
@@ -1752,10 +1753,10 @@
         <v>4.13</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K29">
         <v>7</v>
@@ -1763,7 +1764,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>325</v>
@@ -1787,10 +1788,10 @@
         <v>4.92</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K30">
         <v>28</v>
@@ -1798,7 +1799,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>2226</v>
@@ -1822,10 +1823,10 @@
         <v>1.89</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K31" s="3">
         <v>20</v>
